--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -31,64 +31,43 @@
     <t>GET</t>
   </si>
   <si>
-    <t>user 'admin' inserted product '1' into the database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:05:49</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:05:51</t>
+    <t>user 'admin' gets all products from database</t>
+  </si>
+  <si>
+    <t>2022-12-13 23:30:30</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>user 'admin' inserted product '7' into the database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:15:26</t>
+    <t>user 'admin' inserted product '7' from database</t>
+  </si>
+  <si>
+    <t>2022-12-13 23:30:36</t>
+  </si>
+  <si>
+    <t>user 'admin' gets product '7' from database</t>
+  </si>
+  <si>
+    <t>2022-12-13 23:30:38</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>user 'admin' updated product '7' from database</t>
+  </si>
+  <si>
+    <t>2022-12-13 23:30:40</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>user 'admin' deleted product '7' into the database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:21:46</t>
-  </si>
-  <si>
-    <t>user 'admin' gets all products from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:51:19</t>
-  </si>
-  <si>
-    <t>user 'admin' inserted product '8' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:51:26</t>
-  </si>
-  <si>
-    <t>user 'admin' gets product '8' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:51:32</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>user 'admin' updated product '8' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:51:36</t>
-  </si>
-  <si>
-    <t>user 'admin' deleted product '8' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 22:51:38</t>
+    <t>user 'admin' deleted product '7' from database</t>
+  </si>
+  <si>
+    <t>2022-12-13 23:30:43</t>
   </si>
 </sst>
 </file>
@@ -502,45 +481,45 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -551,24 +530,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -579,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -593,94 +572,38 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -31,43 +31,49 @@
     <t>GET</t>
   </si>
   <si>
+    <t>product inserted directly into the database</t>
+  </si>
+  <si>
+    <t>2022-12-14 00:18:50</t>
+  </si>
+  <si>
     <t>user 'admin' gets all products from database</t>
   </si>
   <si>
-    <t>2022-12-13 23:30:30</t>
+    <t>2022-12-14 00:40:25</t>
+  </si>
+  <si>
+    <t>2022-12-14 00:40:33</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>user 'admin' inserted product '7' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 23:30:36</t>
-  </si>
-  <si>
-    <t>user 'admin' gets product '7' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 23:30:38</t>
+    <t>user 'admin' inserted product '4' from database</t>
+  </si>
+  <si>
+    <t>user 'admin' gets product '4' from database</t>
+  </si>
+  <si>
+    <t>2022-12-14 00:40:35</t>
   </si>
   <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>user 'admin' updated product '7' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 23:30:40</t>
+    <t>user 'admin' updated product '4' from database</t>
+  </si>
+  <si>
+    <t>2022-12-14 00:40:37</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>user 'admin' deleted product '7' from database</t>
-  </si>
-  <si>
-    <t>2022-12-13 23:30:43</t>
+    <t>user 'admin' deleted product '4' from database</t>
+  </si>
+  <si>
+    <t>2022-12-14 00:40:39</t>
   </si>
 </sst>
 </file>
@@ -481,17 +487,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -502,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -516,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -530,24 +536,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -558,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -572,38 +578,94 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -31,19 +31,10 @@
     <t>GET</t>
   </si>
   <si>
-    <t>product inserted directly into the database</t>
-  </si>
-  <si>
-    <t>2022-12-14 00:18:50</t>
-  </si>
-  <si>
     <t>user 'admin' gets all products from database</t>
   </si>
   <si>
-    <t>2022-12-14 00:40:25</t>
-  </si>
-  <si>
-    <t>2022-12-14 00:40:33</t>
+    <t>2022-12-14 09:25:06</t>
   </si>
   <si>
     <t>POST</t>
@@ -52,10 +43,13 @@
     <t>user 'admin' inserted product '4' from database</t>
   </si>
   <si>
+    <t>2022-12-14 09:25:13</t>
+  </si>
+  <si>
     <t>user 'admin' gets product '4' from database</t>
   </si>
   <si>
-    <t>2022-12-14 00:40:35</t>
+    <t>2022-12-14 09:25:18</t>
   </si>
   <si>
     <t>PUT</t>
@@ -64,7 +58,13 @@
     <t>user 'admin' updated product '4' from database</t>
   </si>
   <si>
-    <t>2022-12-14 00:40:37</t>
+    <t>2022-12-14 09:25:21</t>
+  </si>
+  <si>
+    <t>2022-12-14 09:25:22</t>
+  </si>
+  <si>
+    <t>2022-12-14 09:25:25</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -73,7 +73,7 @@
     <t>user 'admin' deleted product '4' from database</t>
   </si>
   <si>
-    <t>2022-12-14 00:40:39</t>
+    <t>2022-12-14 09:25:27</t>
   </si>
 </sst>
 </file>
@@ -95,24 +95,28 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color rgb="FF00FFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color rgb="FF00FF7F"/>
+      <color rgb="FF006400"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color rgb="FFEE82EE"/>
+      <color rgb="FF003399"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FFB22222"/>
       <name val="Calibri"/>
@@ -133,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -487,17 +491,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -536,24 +540,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -564,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -592,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -603,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -620,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
@@ -634,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
@@ -662,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
